--- a/Documents_Appli/BD_PP2I.xlsx
+++ b/Documents_Appli/BD_PP2I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nicolas\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9A15D8-BDB7-49BA-B4A5-C81809AA8D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A9BB12-F14A-43C1-B27F-16B3CD4B6747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EBBE101-3147-4B42-A75C-1CCA29E0C35F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Nom</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Proposition -&gt; Fruit_légumes</t>
+  </si>
+  <si>
+    <t>MdP</t>
+  </si>
+  <si>
+    <t>Mention</t>
   </si>
 </sst>
 </file>
@@ -205,8 +211,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4834B45-4D16-47CF-BBE4-B1D258719BFE}" name="Tableau1" displayName="Tableau1" ref="C3:C8" totalsRowShown="0">
-  <autoFilter ref="C3:C8" xr:uid="{A4834B45-4D16-47CF-BBE4-B1D258719BFE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4834B45-4D16-47CF-BBE4-B1D258719BFE}" name="Tableau1" displayName="Tableau1" ref="C3:C10" totalsRowShown="0">
+  <autoFilter ref="C3:C10" xr:uid="{A4834B45-4D16-47CF-BBE4-B1D258719BFE}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F0E6C92B-4A6B-465C-B431-3644D6B2A735}" name="Utilisateur"/>
   </tableColumns>
@@ -554,7 +560,7 @@
   <dimension ref="C3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,11 +652,17 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
@@ -717,15 +729,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008169B8F39DD18047B54EDB341D703C79" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c10c30072173e4e8eafa0c24c98d0a92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3562c75-269e-420f-ae3e-3442341ebdbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="512eaf682dd95c2843d0122a7e945c9b" ns3:_="">
     <xsd:import namespace="c3562c75-269e-420f-ae3e-3442341ebdbc"/>
@@ -857,6 +860,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -864,14 +876,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A65B51-424D-4719-9D11-0BA37F6FB197}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8D0F41-DCD8-4F72-9B7F-5DAE5486DC39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -889,6 +893,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A65B51-424D-4719-9D11-0BA37F6FB197}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F32C4D-1BF3-41E2-9415-F3A06EBD68FD}">
   <ds:schemaRefs>

--- a/Documents_Appli/BD_PP2I.xlsx
+++ b/Documents_Appli/BD_PP2I.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nicolas\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nicolas\Bureau\VM DOSSIER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A9BB12-F14A-43C1-B27F-16B3CD4B6747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C023B7-70E3-40C3-AF49-CE78BCAF3FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EBBE101-3147-4B42-A75C-1CCA29E0C35F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Nom</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Association</t>
   </si>
   <si>
-    <t>Localisation</t>
-  </si>
-  <si>
     <t>Fruits_légumes</t>
   </si>
   <si>
@@ -147,6 +144,15 @@
   </si>
   <si>
     <t>Mention</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Lieux -&gt; Association</t>
   </si>
 </sst>
 </file>
@@ -221,8 +227,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE87E237-2B56-4788-9853-B554A23AE062}" name="Tableau4" displayName="Tableau4" ref="E3:E12" totalsRowShown="0">
-  <autoFilter ref="E3:E12" xr:uid="{BE87E237-2B56-4788-9853-B554A23AE062}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE87E237-2B56-4788-9853-B554A23AE062}" name="Tableau4" displayName="Tableau4" ref="E3:E14" totalsRowShown="0">
+  <autoFilter ref="E3:E14" xr:uid="{BE87E237-2B56-4788-9853-B554A23AE062}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{D5B56163-E755-43F0-9C11-28C683AABAC7}" name="Proposition"/>
   </tableColumns>
@@ -241,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E0015856-2210-4E18-B540-5A2497E7A69F}" name="Tableau6" displayName="Tableau6" ref="I3:I5" totalsRowShown="0">
-  <autoFilter ref="I3:I5" xr:uid="{E0015856-2210-4E18-B540-5A2497E7A69F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E0015856-2210-4E18-B540-5A2497E7A69F}" name="Tableau6" displayName="Tableau6" ref="I3:I6" totalsRowShown="0">
+  <autoFilter ref="I3:I6" xr:uid="{E0015856-2210-4E18-B540-5A2497E7A69F}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{B4D9CDC7-0F55-4E90-B1C6-3B8A700CF2F8}" name="Association"/>
   </tableColumns>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE02D9-C953-45EE-AD60-BBE5C7AB5269}">
-  <dimension ref="C3:K19"/>
+  <dimension ref="C3:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.3">
@@ -598,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>9</v>
@@ -615,10 +621,10 @@
         <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
@@ -631,6 +637,9 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
@@ -653,7 +662,7 @@
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -661,7 +670,7 @@
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -677,42 +686,58 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" t="s">
-        <v>34</v>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>29</v>
+      <c r="H20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -729,6 +754,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008169B8F39DD18047B54EDB341D703C79" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c10c30072173e4e8eafa0c24c98d0a92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3562c75-269e-420f-ae3e-3442341ebdbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="512eaf682dd95c2843d0122a7e945c9b" ns3:_="">
     <xsd:import namespace="c3562c75-269e-420f-ae3e-3442341ebdbc"/>
@@ -860,15 +894,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -876,6 +901,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A65B51-424D-4719-9D11-0BA37F6FB197}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8D0F41-DCD8-4F72-9B7F-5DAE5486DC39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -893,14 +926,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A65B51-424D-4719-9D11-0BA37F6FB197}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F32C4D-1BF3-41E2-9415-F3A06EBD68FD}">
   <ds:schemaRefs>
